--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.3153057594314</v>
+        <v>163.2237466923917</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.4112445753432</v>
+        <v>223.3299311479179</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.4835749176759</v>
+        <v>202.0156359647518</v>
       </c>
       <c r="AD2" t="n">
-        <v>114315.3057594314</v>
+        <v>163223.7466923917</v>
       </c>
       <c r="AE2" t="n">
-        <v>156411.2445753432</v>
+        <v>223329.9311479179</v>
       </c>
       <c r="AF2" t="n">
         <v>1.800106144600125e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.717447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>141483.5749176759</v>
+        <v>202015.6359647518</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.0978713096568</v>
+        <v>162.7869135211651</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.7961823374878</v>
+        <v>222.7322367313266</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.5910730056838</v>
+        <v>201.4749846644104</v>
       </c>
       <c r="AD2" t="n">
-        <v>124097.8713096568</v>
+        <v>162786.9135211651</v>
       </c>
       <c r="AE2" t="n">
-        <v>169796.1823374878</v>
+        <v>222732.2367313266</v>
       </c>
       <c r="AF2" t="n">
         <v>1.872390419638102e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.173177083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>153591.0730056838</v>
+        <v>201474.9846644104</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.6369386082957</v>
+        <v>217.8039944654349</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.1587903222269</v>
+        <v>298.0090340615481</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.0517057722488</v>
+        <v>269.5674701091081</v>
       </c>
       <c r="AD2" t="n">
-        <v>161636.9386082957</v>
+        <v>217803.9944654349</v>
       </c>
       <c r="AE2" t="n">
-        <v>221158.7903222269</v>
+        <v>298009.0340615481</v>
       </c>
       <c r="AF2" t="n">
         <v>1.916513618456332e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.50651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>200051.7057722488</v>
+        <v>269567.4701091081</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.3684009509996</v>
+        <v>193.2296563030914</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.5852623303267</v>
+        <v>264.3853404445618</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.7778267676333</v>
+        <v>239.1527746197659</v>
       </c>
       <c r="AD2" t="n">
-        <v>136368.4009509996</v>
+        <v>193229.6563030914</v>
       </c>
       <c r="AE2" t="n">
-        <v>186585.2623303267</v>
+        <v>264385.3404445618</v>
       </c>
       <c r="AF2" t="n">
         <v>1.954251063141343e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>168777.8267676333</v>
+        <v>239152.7746197659</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0678797362894</v>
+        <v>264.0436598469284</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0592582581281</v>
+        <v>361.276184186711</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2395676455096</v>
+        <v>326.7964922222396</v>
       </c>
       <c r="AD2" t="n">
-        <v>190067.8797362894</v>
+        <v>264043.6598469284</v>
       </c>
       <c r="AE2" t="n">
-        <v>260059.2582581281</v>
+        <v>361276.184186711</v>
       </c>
       <c r="AF2" t="n">
         <v>1.830793332303819e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.99348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>235239.5676455096</v>
+        <v>326796.4922222396</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.0698267659122</v>
+        <v>162.8723871722951</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.7578105554985</v>
+        <v>222.8491855516339</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.5563633727124</v>
+        <v>201.5807720534463</v>
       </c>
       <c r="AD2" t="n">
-        <v>124069.8267659122</v>
+        <v>162872.3871722951</v>
       </c>
       <c r="AE2" t="n">
-        <v>169757.8105554985</v>
+        <v>222849.1855516339</v>
       </c>
       <c r="AF2" t="n">
         <v>1.854881448488401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>153556.3633727124</v>
+        <v>201580.7720534463</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.4948228052315</v>
+        <v>310.0990028469055</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.268452925224</v>
+        <v>424.2911362976143</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.5614286461503</v>
+        <v>383.7973857457192</v>
       </c>
       <c r="AD2" t="n">
-        <v>227494.8228052315</v>
+        <v>310099.0028469056</v>
       </c>
       <c r="AE2" t="n">
-        <v>311268.452925224</v>
+        <v>424291.1362976144</v>
       </c>
       <c r="AF2" t="n">
         <v>1.746950216586971e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.19401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>281561.4286461503</v>
+        <v>383797.3857457192</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.5763175504554</v>
+        <v>172.51853646842</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.4508135917066</v>
+        <v>236.047472576658</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.1832271717809</v>
+        <v>213.5194330887185</v>
       </c>
       <c r="AD2" t="n">
-        <v>124576.3175504554</v>
+        <v>172518.53646842</v>
       </c>
       <c r="AE2" t="n">
-        <v>170450.8135917066</v>
+        <v>236047.472576658</v>
       </c>
       <c r="AF2" t="n">
         <v>1.927259142847175e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>154183.2271717809</v>
+        <v>213519.4330887185</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.1338898204558</v>
+        <v>172.2878567611197</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.8454644529876</v>
+        <v>235.7318464242594</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.6356517052481</v>
+        <v>213.2339298533206</v>
       </c>
       <c r="AD2" t="n">
-        <v>124133.8898204558</v>
+        <v>172287.8567611196</v>
       </c>
       <c r="AE2" t="n">
-        <v>169845.4644529876</v>
+        <v>235731.8464242594</v>
       </c>
       <c r="AF2" t="n">
         <v>1.893833470280593e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.309895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>153635.6517052481</v>
+        <v>213233.9298533206</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.1387665219889</v>
+        <v>162.9187759870634</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.169695802313</v>
+        <v>222.91265677453</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.2650792205278</v>
+        <v>201.6381856719116</v>
       </c>
       <c r="AD2" t="n">
-        <v>114138.7665219889</v>
+        <v>162918.7759870634</v>
       </c>
       <c r="AE2" t="n">
-        <v>156169.695802313</v>
+        <v>222912.65677453</v>
       </c>
       <c r="AF2" t="n">
         <v>1.822109946628688e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.795572916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>141265.0792205278</v>
+        <v>201638.1856719116</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.5176613288926</v>
+        <v>183.0490514672179</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.4212428473772</v>
+        <v>250.4557877715398</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.7248996704245</v>
+        <v>226.5526389036027</v>
       </c>
       <c r="AD2" t="n">
-        <v>135517.6613288926</v>
+        <v>183049.0514672179</v>
       </c>
       <c r="AE2" t="n">
-        <v>185421.2428473772</v>
+        <v>250455.7877715398</v>
       </c>
       <c r="AF2" t="n">
         <v>1.946082893224623e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167724.8996704245</v>
+        <v>226552.6389036027</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.5273721321693</v>
+        <v>205.9329723440494</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.5899472332306</v>
+        <v>281.7665778825424</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.0641698131437</v>
+        <v>254.8751711513912</v>
       </c>
       <c r="AD2" t="n">
-        <v>149527.3721321693</v>
+        <v>205932.9723440494</v>
       </c>
       <c r="AE2" t="n">
-        <v>204589.9472332306</v>
+        <v>281766.5778825424</v>
       </c>
       <c r="AF2" t="n">
         <v>1.934635244099037e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>185064.1698131437</v>
+        <v>254875.1711513911</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.8606437593733</v>
+        <v>240.0024156829385</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.25204709862</v>
+        <v>328.3818932965482</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.418167515954</v>
+        <v>297.0415862873051</v>
       </c>
       <c r="AD2" t="n">
-        <v>174860.6437593733</v>
+        <v>240002.4156829385</v>
       </c>
       <c r="AE2" t="n">
-        <v>239252.04709862</v>
+        <v>328381.8932965482</v>
       </c>
       <c r="AF2" t="n">
         <v>1.884387729251187e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.53515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>216418.167515954</v>
+        <v>297041.5862873051</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.8215896554877</v>
+        <v>383.0149744030809</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.9689761745779</v>
+        <v>524.0579854064064</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.0372002028446</v>
+        <v>474.0426267992203</v>
       </c>
       <c r="AD2" t="n">
-        <v>282821.5896554877</v>
+        <v>383014.9744030809</v>
       </c>
       <c r="AE2" t="n">
-        <v>386968.9761745779</v>
+        <v>524057.9854064064</v>
       </c>
       <c r="AF2" t="n">
         <v>1.595429752648763e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>350037.2002028446</v>
+        <v>474042.6267992203</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.5729311247945</v>
+        <v>172.6751070858798</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.4461801347188</v>
+        <v>236.2616994028746</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.1790359254249</v>
+        <v>213.7132144073102</v>
       </c>
       <c r="AD2" t="n">
-        <v>124572.9311247945</v>
+        <v>172675.1070858798</v>
       </c>
       <c r="AE2" t="n">
-        <v>170446.1801347188</v>
+        <v>236261.6994028746</v>
       </c>
       <c r="AF2" t="n">
         <v>1.903293895047524e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.524739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>154179.0359254249</v>
+        <v>213713.2144073102</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.2795117441175</v>
+        <v>162.9269902901356</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.3622696244702</v>
+        <v>222.9238959463829</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.4392740673774</v>
+        <v>201.6483521929771</v>
       </c>
       <c r="AD2" t="n">
-        <v>114279.5117441175</v>
+        <v>162926.9902901356</v>
       </c>
       <c r="AE2" t="n">
-        <v>156362.2696244702</v>
+        <v>222923.8959463829</v>
       </c>
       <c r="AF2" t="n">
         <v>1.834967077315003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.92578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>141439.2740673774</v>
+        <v>201648.3521929771</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.5306160116311</v>
+        <v>530.8741711512031</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.1824384063638</v>
+        <v>726.3654614845713</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.5327460391823</v>
+        <v>657.042161300811</v>
       </c>
       <c r="AD2" t="n">
-        <v>395530.6160116312</v>
+        <v>530874.1711512031</v>
       </c>
       <c r="AE2" t="n">
-        <v>541182.4384063637</v>
+        <v>726365.4614845712</v>
       </c>
       <c r="AF2" t="n">
         <v>1.34992895387904e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.43359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>489532.7460391823</v>
+        <v>657042.161300811</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.540003863498</v>
+        <v>194.7223887771464</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.8707422915358</v>
+        <v>266.4277628702719</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6044819746553</v>
+        <v>241.0002711157248</v>
       </c>
       <c r="AD2" t="n">
-        <v>147540.003863498</v>
+        <v>194722.3887771464</v>
       </c>
       <c r="AE2" t="n">
-        <v>201870.7422915358</v>
+        <v>266427.7628702719</v>
       </c>
       <c r="AF2" t="n">
         <v>1.946407374267987e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.12630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182604.4819746553</v>
+        <v>241000.2711157248</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.0691257037871</v>
+        <v>182.3304825609578</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.125095448256</v>
+        <v>249.4726100929725</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.7931565143019</v>
+        <v>225.6632943227791</v>
       </c>
       <c r="AD2" t="n">
-        <v>125069.1257037871</v>
+        <v>182330.4825609578</v>
       </c>
       <c r="AE2" t="n">
-        <v>171125.095448256</v>
+        <v>249472.6100929725</v>
       </c>
       <c r="AF2" t="n">
         <v>1.94052355594399e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>154793.1565143019</v>
+        <v>225663.2943227791</v>
       </c>
     </row>
   </sheetData>
